--- a/data/trans_camb/P53_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P53_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-20,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-12,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 11,02</t>
+          <t>-7,63; 11,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 14,43</t>
+          <t>-6,34; 17,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 15,12</t>
+          <t>-6,24; 17,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 13,13</t>
+          <t>-13,53; 5,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 12,46</t>
+          <t>-11,81; 9,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 11,08</t>
+          <t>-11,37; 11,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 8,77</t>
+          <t>-11,8; 10,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 10,41</t>
+          <t>-31,43; -10,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 9,97</t>
+          <t>-7,76; 8,1</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 11,43</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 10,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-19,46; -4,26</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>-28,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>-4,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>-1,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>-71,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-55,49%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 106,94</t>
+          <t>-38,8; 102,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 135,32</t>
+          <t>-36,57; 160,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 148,55</t>
+          <t>-33,38; 168,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,55; 56,09</t>
+          <t>-72,05; 43,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 56,19</t>
+          <t>-35,78; 40,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 47,24</t>
+          <t>-33,92; 49,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 48,06</t>
+          <t>-34,26; 43,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 57,04</t>
+          <t>-89,83; -23,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 55,94</t>
+          <t>-30,16; 43,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-22,81; 62,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-25,62; 58,55</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-76,53; -20,24</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-13,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,91</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-8,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 9,08</t>
+          <t>-16,53; 11,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 17,38</t>
+          <t>-10,8; 19,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 23,67</t>
+          <t>-6,74; 27,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 5,81</t>
+          <t>-19,23; 11,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 10,16</t>
+          <t>-13,86; 4,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 12,85</t>
+          <t>-10,66; 10,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 4,61</t>
+          <t>-7,9; 11,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 10,38</t>
+          <t>-22,09; -6,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 15,93</t>
+          <t>-12,09; 5,03</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; 12,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 16,0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-16,83; 0,62</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>43,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,63%</t>
+          <t>-24,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,28%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>-58,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>-17,71%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-41,69%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,13; 70,74</t>
+          <t>-59,83; 89,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 123,41</t>
+          <t>-43,02; 153,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 169,94</t>
+          <t>-33,23; 201,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,6; 30,0</t>
+          <t>-70,22; 95,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 55,59</t>
+          <t>-49,74; 27,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 70,82</t>
+          <t>-40,2; 53,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,96; 27,39</t>
+          <t>-28,65; 63,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 58,11</t>
+          <t>-80,24; -33,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 85,57</t>
+          <t>-45,69; 34,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-31,98; 66,87</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,14; 86,98</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-66,02; 8,4</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,88</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>-7,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-12,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-10,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 21,03</t>
+          <t>-1,66; 17,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 14,47</t>
+          <t>-5,19; 13,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 18,41</t>
+          <t>-7,36; 16,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 3,8</t>
+          <t>-16,15; -0,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 2,84</t>
+          <t>-9,38; 3,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,41; -0,14</t>
+          <t>-10,15; 2,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 11,35</t>
+          <t>-13,23; -1,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 7,22</t>
+          <t>-18,17; -6,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 5,83</t>
+          <t>-3,4; 8,41</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 6,01</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,64; 4,63</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; -5,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>58,08%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,83%</t>
+          <t>-48,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,27%</t>
+          <t>-13,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,49%</t>
+          <t>-20,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>-36,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-61,95%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>13,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-10,77%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-55,97%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 146,35</t>
+          <t>-10,61; 135,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 102,76</t>
+          <t>-27,53; 105,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 131,0</t>
+          <t>-37,58; 123,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 23,67</t>
+          <t>-74,9; 9,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,28; 18,48</t>
+          <t>-39,03; 23,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,63; 0,2</t>
+          <t>-44,0; 17,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 73,12</t>
+          <t>-57,12; -7,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 45,83</t>
+          <t>-77,01; -37,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 36,36</t>
+          <t>-16,96; 50,72</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-29,67; 37,44</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-40,45; 29,21</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-71,12; -33,34</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-11,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-8,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 8,72</t>
+          <t>-5,09; 10,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 9,66</t>
+          <t>-7,19; 8,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 13,41</t>
+          <t>-4,32; 13,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 9,1</t>
+          <t>-12,83; -0,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 5,29</t>
+          <t>-4,85; 9,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 4,81</t>
+          <t>-9,52; 4,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 6,86</t>
+          <t>-9,37; 4,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 5,05</t>
+          <t>-17,44; -4,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 6,21</t>
+          <t>-3,5; 6,92</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; 3,65</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 5,41</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; -5,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>-37,46%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,6%</t>
+          <t>-9,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>-11,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-3,47%</t>
+          <t>-42,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-6,71%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-0,58%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-40,91%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 59,9</t>
+          <t>-26,9; 80,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 65,1</t>
+          <t>-37,72; 59,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 93,21</t>
+          <t>-23,87; 94,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 39,45</t>
+          <t>-62,98; -4,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 22,12</t>
+          <t>-15,76; 43,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,11; 19,86</t>
+          <t>-32,32; 21,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 34,04</t>
+          <t>-32,26; 19,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 24,71</t>
+          <t>-58,68; -18,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 33,2</t>
+          <t>-14,4; 35,25</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-28,04; 19,25</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-22,09; 27,38</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-57,07; -24,95</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-10,25</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
           <t>1,29</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-7,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 9,38</t>
+          <t>-10,0; 9,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 13,47</t>
+          <t>-6,18; 13,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 14,54</t>
+          <t>-5,43; 14,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 12,58</t>
+          <t>-13,88; 3,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 10,06</t>
+          <t>-9,42; 10,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 7,94</t>
+          <t>-12,03; 8,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 8,65</t>
+          <t>-13,24; 7,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 8,96</t>
+          <t>-20,63; 0,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 8,4</t>
+          <t>-5,62; 7,43</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 7,88</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 8,5</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-14,71; -0,96</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>-0,03%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>-22,64%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,92%</t>
+          <t>-3,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>-27,62%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-24,89%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 49,81</t>
+          <t>-36,16; 47,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 67,25</t>
+          <t>-23,8; 65,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 73,89</t>
+          <t>-21,06; 72,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 39,93</t>
+          <t>-49,44; 17,05</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 31,57</t>
+          <t>-23,02; 33,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 23,91</t>
+          <t>-27,86; 26,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 32,07</t>
+          <t>-30,94; 25,42</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 33,09</t>
+          <t>-49,93; 6,54</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 30,8</t>
+          <t>-17,63; 27,75</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-20,55; 30,39</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-17,39; 31,4</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-43,46; -2,63</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,38</t>
+          <t>-9,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-9,58</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>-7,68</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-6,65</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-5,88</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-7,46</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 6,29</t>
+          <t>-14,99; 4,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 2,16</t>
+          <t>-19,4; 0,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 1,15</t>
+          <t>-18,62; 0,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 1,24</t>
+          <t>-16,79; 4,42</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 5,55</t>
+          <t>-18,96; 1,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 6,06</t>
+          <t>-15,29; 6,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 0,16</t>
+          <t>-14,03; 8,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 0,77</t>
+          <t>-20,22; 4,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 1,41</t>
+          <t>-14,85; -0,18</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 1,04</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 2,44</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-15,4; 1,3</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-14,68%</t>
+          <t>-17,5%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-30,44%</t>
+          <t>-28,1%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>-31,02%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-19,91%</t>
+          <t>-22,2%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-12,15%</t>
+          <t>-18,77%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-9,78%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-18,43%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-18,86%</t>
+          <t>-16,82%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-15,61%</t>
+          <t>-18,53%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-16,07%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-14,21%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-18,02%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-42,31; 24,58</t>
+          <t>-42,93; 16,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-53,27; 8,96</t>
+          <t>-55,98; 1,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,75; 4,71</t>
+          <t>-54,76; 1,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-38,05; 2,99</t>
+          <t>-49,42; 17,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 11,56</t>
+          <t>-34,67; 3,02</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 13,32</t>
+          <t>-28,28; 13,62</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 0,66</t>
+          <t>-25,74; 19,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-37,72; 2,14</t>
+          <t>-37,07; 8,37</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 4,76</t>
+          <t>-34,0; -0,48</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-33,89; 3,53</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-30,1; 6,5</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-34,17; 3,55</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
           <t>-3,22</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>-3,55</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-11,98</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-9,02</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,79</t>
+          <t>-3,45; 4,77</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,74</t>
+          <t>-3,37; 6,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 8,15</t>
+          <t>-1,86; 7,54</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 1,64</t>
+          <t>-10,2; -2,32</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 0,75</t>
+          <t>-6,35; 1,1</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 0,36</t>
+          <t>-6,62; 1,51</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,29</t>
+          <t>-7,18; 0,51</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,66</t>
+          <t>-15,81; -7,99</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,8</t>
+          <t>-3,56; 1,9</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 1,96</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 3,05</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-11,69; -6,0</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-7,7%</t>
+          <t>-30,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-10,43%</t>
+          <t>-8,69%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-11,5%</t>
+          <t>-9,85%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-10,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-4,86%</t>
+          <t>-38,85%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>-3,95%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-4,0%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-1,19%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-35,18%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 30,61</t>
+          <t>-15,6; 25,04</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 30,89</t>
+          <t>-14,96; 31,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 44,2</t>
+          <t>-8,94; 40,14</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 5,48</t>
+          <t>-45,37; -10,95</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 2,78</t>
+          <t>-19,56; 3,89</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 1,19</t>
+          <t>-20,22; 5,5</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 9,19</t>
+          <t>-22,43; 1,52</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 6,54</t>
+          <t>-49,27; -26,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 11,34</t>
+          <t>-13,5; 7,71</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 8,01</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 12,62</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-43,71; -23,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
